--- a/WppRegPack/TestResource/TC_RunManager.xlsx
+++ b/WppRegPack/TestResource/TC_RunManager.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WppRegression_v12.50\WppRegression_v12.50\WppRegPack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\GlobalScript\Master\GlobalTestPack\WppRegPack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19500" windowHeight="8880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19500" windowHeight="8880" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CHN_SysTest_FullCycle" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="38">
   <si>
     <t>Description</t>
   </si>
@@ -103,9 +103,6 @@
     <t>TS06_ModifyBudget</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>Create_Quote</t>
   </si>
   <si>
@@ -143,6 +140,15 @@
   </si>
   <si>
     <t>EEU</t>
+  </si>
+  <si>
+    <t>CreatePurchseOrder</t>
+  </si>
+  <si>
+    <t>CreatePurchaseOrder</t>
+  </si>
+  <si>
+    <t>Create Purchase Order</t>
   </si>
 </sst>
 </file>
@@ -563,7 +569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5:D6"/>
     </sheetView>
   </sheetViews>
@@ -605,7 +611,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
@@ -633,13 +639,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
@@ -647,13 +653,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
@@ -661,13 +667,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
@@ -717,13 +723,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
@@ -731,13 +737,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
@@ -751,10 +757,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,7 +810,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -847,6 +853,20 @@
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1293,13 +1313,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>2</v>

--- a/WppRegPack/TestResource/TC_RunManager.xlsx
+++ b/WppRegPack/TestResource/TC_RunManager.xlsx
@@ -5,22 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\GlobalScript\Master\GlobalTestPack\WppRegPack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\GlobalScript\GlobalTestPack\WppRegPack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19500" windowHeight="8880" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19500" windowHeight="8880" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="CHN_SysTest_FullCycle" sheetId="6" r:id="rId1"/>
     <sheet name="IND_SysTest_FullCycle" sheetId="5" r:id="rId2"/>
     <sheet name="IND_Regression_FullCycle" sheetId="1" r:id="rId3"/>
     <sheet name="CHN_Regression_FullCycle" sheetId="2" r:id="rId4"/>
-    <sheet name="Smoke" sheetId="3" r:id="rId5"/>
-    <sheet name="GlobalTestPack" sheetId="4" r:id="rId6"/>
+    <sheet name="CHN_Critical Regression" sheetId="7" r:id="rId5"/>
+    <sheet name="IND_Critical Regression" sheetId="8" r:id="rId6"/>
+    <sheet name="Smoke" sheetId="3" r:id="rId7"/>
+    <sheet name="GlobalTestPack" sheetId="4" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="IterationOptions">[1]Sheet1!$A$2:$A$4</definedName>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="36">
   <si>
     <t>Description</t>
   </si>
@@ -137,12 +139,6 @@
   </si>
   <si>
     <t>Create User</t>
-  </si>
-  <si>
-    <t>EEU</t>
-  </si>
-  <si>
-    <t>CreatePurchseOrder</t>
   </si>
   <si>
     <t>CreatePurchaseOrder</t>
@@ -570,7 +566,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D6"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,7 +602,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -740,13 +736,13 @@
         <v>34</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -759,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,13 +853,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>2</v>
@@ -877,10 +873,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -931,7 +927,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -974,6 +970,20 @@
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -986,6 +996,154 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -1091,12 +1249,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1137,112 +1295,6 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1313,13 +1365,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>2</v>

--- a/WppRegPack/TestResource/TC_RunManager.xlsx
+++ b/WppRegPack/TestResource/TC_RunManager.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\GlobalScript\GlobalTestPack\WppRegPack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\741496\Downloads\RegressionCode\RegressionCode\GlobalTestPack\WppRegpack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="39">
   <si>
     <t>Description</t>
   </si>
@@ -145,6 +145,15 @@
   </si>
   <si>
     <t>Create Purchase Order</t>
+  </si>
+  <si>
+    <t>CreateVendor</t>
+  </si>
+  <si>
+    <t>VendorCreation</t>
+  </si>
+  <si>
+    <t>Vendor Creation</t>
   </si>
 </sst>
 </file>
@@ -563,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,6 +751,20 @@
         <v>35</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -876,7 +899,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WppRegPack/TestResource/TC_RunManager.xlsx
+++ b/WppRegPack/TestResource/TC_RunManager.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\RegressionCode\WppTestSuite\WppRegPack\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\GlobalScript\GlobalTestPack\WppRegPack\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1149,7 +1149,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1269,7 +1269,7 @@
         <v>43</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1339,7 +1339,7 @@
         <v>52</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/WppRegPack/TestResource/TC_RunManager.xlsx
+++ b/WppRegPack/TestResource/TC_RunManager.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19500" windowHeight="8880" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="CHN_SysTest_FullCycle" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="54">
   <si>
     <t>Description</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>Print Job Budget</t>
+  </si>
+  <si>
+    <t>Create new global vensor</t>
   </si>
 </sst>
 </file>
@@ -1148,7 +1151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -1484,10 +1487,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1638,6 +1641,62 @@
         <v>2</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/WppRegPack/TestResource/TC_RunManager.xlsx
+++ b/WppRegPack/TestResource/TC_RunManager.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CHN_SysTest_FullCycle" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="54">
   <si>
     <t>Description</t>
   </si>
@@ -1149,10 +1149,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1342,6 +1342,20 @@
         <v>52</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1489,8 +1503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WppRegPack/TestResource/TC_RunManager.xlsx
+++ b/WppRegPack/TestResource/TC_RunManager.xlsx
@@ -1152,7 +1152,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:D14"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1258,7 +1258,7 @@
         <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1272,7 +1272,7 @@
         <v>43</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">

--- a/WppRegPack/TestResource/TC_RunManager.xlsx
+++ b/WppRegPack/TestResource/TC_RunManager.xlsx
@@ -1151,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1258,7 +1258,7 @@
         <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1300,7 +1300,7 @@
         <v>46</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
